--- a/Layouts/DefaultTransportHistory.xlsx
+++ b/Layouts/DefaultTransportHistory.xlsx
@@ -113,26 +113,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:Q2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:Q2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="17">
-    <x:tableColumn id="1" name="Item_No_" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="2" name="Description" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="3" name="PostedWarehouseShipmentNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="4" name="WarehouseShipmentNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="5" name="Source_No_" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="6" name="Source_Type" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="7" name="Quantity" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="8" name="Consolidated" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="9" name="Posting_Date" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="10" name="Shipping_Agent_Code" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="11" name="DestPostCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="12" name="OrigPostCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="13" name="Cubage" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="14" name="Length" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="15" name="Width" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="16" name="Height" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
-    <x:tableColumn id="17" name="UnitWeight" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:P2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="16">
+    <x:tableColumn id="1" name="ItemNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="2" name="ItemName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="3" name="ReferenceNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="4" name="ShipmentNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="5" name="Type" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="6" name="Quantity" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="7" name="Consolidated" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="8" name="DateShipped" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="9" name="ShippingAgent" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="10" name="DestPostCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="11" name="Cubage" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="12" name="Length" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="13" name="Width" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="14" name="Height" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="15" name="UnitWeight" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="16" name="OrigPostCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -449,55 +448,52 @@
   <x:sheetData>
     <x:row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <x:c r="A1" t="str">
-        <x:v>Item_No_</x:v>
+        <x:v>ItemNo</x:v>
       </x:c>
       <x:c r="B1" t="str">
-        <x:v>Description</x:v>
+        <x:v>ItemName</x:v>
       </x:c>
       <x:c r="C1" t="str">
-        <x:v>PostedWarehouseShipmentNo</x:v>
+        <x:v>ReferenceNo</x:v>
       </x:c>
       <x:c r="D1" t="str">
-        <x:v>WarehouseShipmentNo</x:v>
+        <x:v>ShipmentNo</x:v>
       </x:c>
       <x:c r="E1" t="str">
-        <x:v>Source_No_</x:v>
+        <x:v>Type</x:v>
       </x:c>
       <x:c r="F1" t="str">
-        <x:v>Source_Type</x:v>
+        <x:v>Quantity</x:v>
       </x:c>
       <x:c r="G1" t="str">
-        <x:v>Quantity</x:v>
+        <x:v>Consolidated</x:v>
       </x:c>
       <x:c r="H1" t="str">
-        <x:v>Consolidated</x:v>
+        <x:v>DateShipped</x:v>
       </x:c>
       <x:c r="I1" t="str">
-        <x:v>Posting_Date</x:v>
+        <x:v>ShippingAgent</x:v>
       </x:c>
       <x:c r="J1" t="str">
-        <x:v>Shipping_Agent_Code</x:v>
+        <x:v>DestPostCode</x:v>
       </x:c>
       <x:c r="K1" t="str">
-        <x:v>DestPostCode</x:v>
+        <x:v>Cubage</x:v>
       </x:c>
       <x:c r="L1" t="str">
+        <x:v>Length</x:v>
+      </x:c>
+      <x:c r="M1" t="str">
+        <x:v>Width</x:v>
+      </x:c>
+      <x:c r="N1" t="str">
+        <x:v>Height</x:v>
+      </x:c>
+      <x:c r="O1" t="str">
+        <x:v>UnitWeight</x:v>
+      </x:c>
+      <x:c r="P1" t="str">
         <x:v>OrigPostCode</x:v>
-      </x:c>
-      <x:c r="M1" t="str">
-        <x:v>Cubage</x:v>
-      </x:c>
-      <x:c r="N1" t="str">
-        <x:v>Length</x:v>
-      </x:c>
-      <x:c r="O1" t="str">
-        <x:v>Width</x:v>
-      </x:c>
-      <x:c r="P1" t="str">
-        <x:v>Height</x:v>
-      </x:c>
-      <x:c r="Q1" t="str">
-        <x:v>UnitWeight</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Layouts/DefaultTransportHistory.xlsx
+++ b/Layouts/DefaultTransportHistory.xlsx
@@ -113,9 +113,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:P2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
-  <x:autoFilter ref="A1:P2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
-  <x:tableColumns count="16">
+<x:table xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Data" displayName="Data" ref="A1:Q2" insertRow="1" totalsRowShown="0" headerRowDxfId="0" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}" mc:Ignorable="xr xr3">
+  <x:autoFilter ref="A1:Q2" xr:uid="{41D726F2-778D-4B1C-A5EA-875FED73D050}"/>
+  <x:tableColumns count="17">
     <x:tableColumn id="1" name="ItemNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="2" name="ItemName" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="3" name="ReferenceNo" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
@@ -132,6 +132,7 @@
     <x:tableColumn id="14" name="Height" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="15" name="UnitWeight" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
     <x:tableColumn id="16" name="OrigPostCode" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
+    <x:tableColumn id="17" name="TFB_Location_Type" xr3:uid="{21867904-D69E-41E3-B5BE-D9B124B8D7E4}"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -495,6 +496,9 @@
       <x:c r="P1" t="str">
         <x:v>OrigPostCode</x:v>
       </x:c>
+      <x:c r="Q1" t="str">
+        <x:v>TFB_Location_Type</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
